--- a/class.xlsx
+++ b/class.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="JSS1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="JSS2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="JSS3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="SS1A" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="SS1B" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="SS2A" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="SS2B" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="SS3A" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="SS3B" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="JSS1 Class" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="JSS2 Class" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="JSS3 Class" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="SS1A Class" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="SS1B Class" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="SS2A Class" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="SS2B Class" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="SS3A Class" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="SS3B Class" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -444,13 +444,13 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>JSS1</t>
+          <t>Names</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -460,7 +460,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -470,7 +470,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -480,7 +480,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -490,7 +490,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -500,7 +500,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -530,13 +530,13 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>JSS2</t>
+          <t>Names</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -566,13 +566,13 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>JSS3</t>
+          <t>Names</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -582,7 +582,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -592,7 +592,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -622,13 +622,13 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>SS1A</t>
+          <t>Names</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -638,7 +638,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -648,7 +648,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -698,13 +698,13 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>SS1B</t>
+          <t>Names</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -714,7 +714,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -724,7 +724,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -734,7 +734,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -784,7 +784,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -824,13 +824,13 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>SS2A</t>
+          <t>Names</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -840,7 +840,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -860,7 +860,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -870,7 +870,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -900,13 +900,13 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>SS2B</t>
+          <t>Names</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -946,13 +946,13 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>SS3A</t>
+          <t>Names</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -972,7 +972,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -982,7 +982,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -992,7 +992,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -1022,13 +1022,13 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>SS3B</t>
+          <t>Names</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
